--- a/neotoma_atkins_2024/NEO_2024_RFseq_mastermixcockatils.xlsx
+++ b/neotoma_atkins_2024/NEO_2024_RFseq_mastermixcockatils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/neotoma_atkins_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2206E1AB-9E49-F44C-9824-D48255C8F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A2D4EB-6790-F642-BC0D-B7076F5DF0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="500" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="500" windowWidth="27260" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -627,9 +627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -773,7 +773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,7 +915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
         <v>46</v>
       </c>
       <c r="E1" s="5">
-        <v>384</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -967,7 +967,10 @@
       </c>
       <c r="C3" s="22">
         <f>1.15*E1</f>
-        <v>441.59999999999997</v>
+        <v>482.99999999999994</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,7 +982,10 @@
       </c>
       <c r="C4" s="23">
         <f>0.6*E1</f>
-        <v>230.39999999999998</v>
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -991,7 +997,10 @@
       </c>
       <c r="C5" s="23">
         <f>0.6 * E1</f>
-        <v>230.39999999999998</v>
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1003,7 +1012,10 @@
       </c>
       <c r="C6" s="23">
         <f>0.25*E1</f>
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1015,7 +1027,10 @@
       </c>
       <c r="C7" s="23">
         <f>0.12*E1</f>
-        <v>46.08</v>
+        <v>50.4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1027,7 +1042,10 @@
       </c>
       <c r="C8" s="24">
         <f>0.28*E1</f>
-        <v>107.52000000000001</v>
+        <v>117.60000000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1039,7 +1057,7 @@
       </c>
       <c r="C10" s="25">
         <f>SUM(C3:C9)</f>
-        <v>1152</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1048,7 +1066,7 @@
       </c>
       <c r="C11" s="25">
         <f>C10/12</f>
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,7 +1097,10 @@
       </c>
       <c r="C15" s="23">
         <f>B15*E1</f>
-        <v>384</v>
+        <v>420</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,7 +1112,10 @@
       </c>
       <c r="C16" s="23">
         <f>B16*E1</f>
-        <v>27.647999999999996</v>
+        <v>30.24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1103,7 +1127,10 @@
       </c>
       <c r="C17" s="23">
         <f>B17*E1</f>
-        <v>38.400000000000006</v>
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1115,9 +1142,11 @@
       </c>
       <c r="C18" s="23">
         <f>B18*E1</f>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1128,7 +1157,10 @@
       </c>
       <c r="C19" s="23">
         <f>B19*E1</f>
-        <v>19.200000000000003</v>
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1172,10 @@
       </c>
       <c r="C20" s="24">
         <f>B20*E1</f>
-        <v>64.320000000000007</v>
+        <v>70.350000000000009</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,7 +1187,7 @@
       </c>
       <c r="C22" s="25">
         <f>SUM(C15:C20)</f>
-        <v>552.76800000000003</v>
+        <v>604.59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,7 +1196,7 @@
       </c>
       <c r="C23" s="25">
         <f>C22/12</f>
-        <v>46.064</v>
+        <v>50.3825</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1207,7 +1242,10 @@
       </c>
       <c r="C29" s="23">
         <f>B29*E1</f>
-        <v>3713.2799999999997</v>
+        <v>4061.4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1219,7 +1257,10 @@
       </c>
       <c r="C30" s="23">
         <f>4*E1</f>
-        <v>1536</v>
+        <v>1680</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1231,7 +1272,10 @@
       </c>
       <c r="C31" s="23">
         <f>B31*E1</f>
-        <v>153.60000000000002</v>
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1243,7 +1287,10 @@
       </c>
       <c r="C32" s="23">
         <f>B32*E1</f>
-        <v>153.60000000000002</v>
+        <v>168</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,9 +1302,11 @@
       </c>
       <c r="C33" s="23">
         <f>B33*E1</f>
-        <v>510.72</v>
-      </c>
-      <c r="D33" s="19"/>
+        <v>558.6</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1268,7 +1317,10 @@
       </c>
       <c r="C34" s="23">
         <f>B34*E1</f>
-        <v>76.800000000000011</v>
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1280,7 +1332,10 @@
       </c>
       <c r="C35" s="23">
         <f>B35*E1</f>
-        <v>57.599999999999994</v>
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1356,7 @@
       </c>
       <c r="C38" s="25">
         <f>SUM(C29:C37)</f>
-        <v>6201.6000000000013</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1344,7 +1399,7 @@
       </c>
       <c r="C44" s="23">
         <f>E$1*B44</f>
-        <v>163.19999999999999</v>
+        <v>178.5</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -1359,7 +1414,7 @@
       </c>
       <c r="C45" s="23">
         <f>E$1*B45</f>
-        <v>153.60000000000002</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -1374,7 +1429,7 @@
       </c>
       <c r="C46" s="23">
         <f>E$1*B46</f>
-        <v>510.72</v>
+        <v>558.6</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -1386,7 +1441,7 @@
       </c>
       <c r="C47" s="25">
         <f>SUM(C44:C46)</f>
-        <v>827.52</v>
+        <v>905.1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1398,15 +1453,15 @@
       </c>
       <c r="C48" s="20">
         <f>C47/12</f>
-        <v>68.959999999999994</v>
+        <v>75.424999999999997</v>
       </c>
       <c r="D48" s="1">
         <f>C48 * (3/7)</f>
-        <v>29.554285714285712</v>
+        <v>32.324999999999996</v>
       </c>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>39.405714285714282</v>
+        <v>43.099999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1428,7 +1483,7 @@
       </c>
       <c r="B53" s="15">
         <f>C3+C17</f>
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>36</v>
@@ -1449,7 +1504,7 @@
       </c>
       <c r="B54" s="15">
         <f>C18+C4</f>
-        <v>249.59999999999997</v>
+        <v>273</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>29</v>
@@ -1468,7 +1523,7 @@
       </c>
       <c r="B55" s="15">
         <f>C5+C19</f>
-        <v>249.59999999999997</v>
+        <v>273</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>30</v>
@@ -1487,7 +1542,7 @@
       </c>
       <c r="B56" s="15">
         <f>C29+C16+C6</f>
-        <v>3836.9279999999999</v>
+        <v>4196.6399999999994</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>31</v>
@@ -1506,7 +1561,7 @@
       </c>
       <c r="B57" s="15">
         <f>C7</f>
-        <v>46.08</v>
+        <v>50.4</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>32</v>
@@ -1525,7 +1580,7 @@
       </c>
       <c r="B58" s="15">
         <f>C8</f>
-        <v>107.52000000000001</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>33</v>
@@ -1544,7 +1599,7 @@
       </c>
       <c r="B59" s="15">
         <f>C15</f>
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>34</v>
@@ -1563,7 +1618,7 @@
       </c>
       <c r="B60" s="15">
         <f>C20</f>
-        <v>64.320000000000007</v>
+        <v>70.350000000000009</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>42</v>
@@ -1581,7 +1636,7 @@
       </c>
       <c r="B61" s="15">
         <f>C30+C44</f>
-        <v>1699.2</v>
+        <v>1858.5</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>43</v>
@@ -1602,7 +1657,7 @@
       </c>
       <c r="B62" s="15">
         <f>C31+C45</f>
-        <v>307.20000000000005</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1611,7 +1666,7 @@
       </c>
       <c r="B63" s="15">
         <f>C32</f>
-        <v>153.60000000000002</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1620,7 +1675,7 @@
       </c>
       <c r="B64" s="15">
         <f>C33+C46</f>
-        <v>1021.44</v>
+        <v>1117.2</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1684,7 @@
       </c>
       <c r="B65" s="15">
         <f>C34</f>
-        <v>76.800000000000011</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1638,7 +1693,7 @@
       </c>
       <c r="B66" s="15">
         <f>C35</f>
-        <v>57.599999999999994</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
